--- a/outcome/simulate data/B_Malaria.xlsx
+++ b/outcome/simulate data/B_Malaria.xlsx
@@ -412,7 +412,7 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>239.458956651691</v>
+        <v>231.544772891865</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -422,7 +422,7 @@
         <v>44713</v>
       </c>
       <c r="H2" t="n">
-        <v>39.9066885123556</v>
+        <v>40.3891433430628</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -434,7 +434,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>241.015851432746</v>
+        <v>232.981828135501</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -444,7 +444,7 @@
         <v>44743</v>
       </c>
       <c r="H3" t="n">
-        <v>37.3957046059553</v>
+        <v>44.2657792401201</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -456,7 +456,7 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>243.599089842087</v>
+        <v>233.736236701975</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -466,7 +466,7 @@
         <v>44774</v>
       </c>
       <c r="H4" t="n">
-        <v>33.5570269600949</v>
+        <v>41.0964066505431</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -478,7 +478,7 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>246.77801892964</v>
+        <v>234.727755456194</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -488,7 +488,7 @@
         <v>44805</v>
       </c>
       <c r="H5" t="n">
-        <v>27.0411973522469</v>
+        <v>36.4908293209492</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -500,7 +500,7 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>250.11015883753</v>
+        <v>234.393031842183</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -510,7 +510,7 @@
         <v>44835</v>
       </c>
       <c r="H6" t="n">
-        <v>26.2475762978927</v>
+        <v>35.477247858562</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -522,7 +522,7 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>253.052573457652</v>
+        <v>233.685078276348</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -532,7 +532,7 @@
         <v>44866</v>
       </c>
       <c r="H7" t="n">
-        <v>23.9428236230568</v>
+        <v>32.7385443129066</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -544,7 +544,7 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>254.935954016085</v>
+        <v>232.696745401173</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -554,7 +554,7 @@
         <v>44896</v>
       </c>
       <c r="H8" t="n">
-        <v>24.0958994721705</v>
+        <v>31.2875761789214</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -566,7 +566,7 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>255.272875092779</v>
+        <v>232.350505756483</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -576,7 +576,7 @@
         <v>44927</v>
       </c>
       <c r="H9" t="n">
-        <v>18.1492411983432</v>
+        <v>27.5118210204194</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -588,7 +588,7 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>253.949592544156</v>
+        <v>232.277371715127</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -598,7 +598,7 @@
         <v>44958</v>
       </c>
       <c r="H10" t="n">
-        <v>13.2523697559201</v>
+        <v>24.9096748042407</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -610,7 +610,7 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>251.356071646479</v>
+        <v>232.706937802537</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -620,7 +620,7 @@
         <v>44986</v>
       </c>
       <c r="H11" t="n">
-        <v>6.83426750813589</v>
+        <v>21.3593403133996</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -632,7 +632,7 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>248.260600900765</v>
+        <v>232.666334043106</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -642,7 +642,7 @@
         <v>45017</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46142098190302</v>
+        <v>17.4430463772077</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -654,7 +654,7 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>245.458250371042</v>
+        <v>232.694550985338</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -664,7 +664,7 @@
         <v>45047</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.02796803626694</v>
+        <v>13.4302851450626</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -676,7 +676,7 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>243.53218048752</v>
+        <v>232.444233052728</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -686,7 +686,7 @@
         <v>45078</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.29814301944174</v>
+        <v>9.36092638845435</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -698,7 +698,7 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>242.724896663588</v>
+        <v>232.655042908096</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -708,7 +708,7 @@
         <v>45108</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.94064229447378</v>
+        <v>4.82449514166467</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -720,7 +720,7 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>242.994718845514</v>
+        <v>233.000447059013</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -730,7 +730,7 @@
         <v>45139</v>
       </c>
       <c r="H16" t="n">
-        <v>-14.5702543732102</v>
+        <v>-0.352952817897119</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -742,7 +742,7 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>244.157759250618</v>
+        <v>233.50780880573</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -752,7 +752,7 @@
         <v>45170</v>
       </c>
       <c r="H17" t="n">
-        <v>-20.6000278384402</v>
+        <v>-6.38230555410848</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -764,7 +764,7 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>245.946331167299</v>
+        <v>233.699980971237</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -774,7 +774,7 @@
         <v>45200</v>
       </c>
       <c r="H18" t="n">
-        <v>-25.9001114307457</v>
+        <v>-13.0846852455907</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -786,7 +786,7 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>248.046553693766</v>
+        <v>233.591433634057</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -796,7 +796,7 @@
         <v>45231</v>
       </c>
       <c r="H19" t="n">
-        <v>-31.6258395250001</v>
+        <v>-20.9022336288338</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -808,7 +808,7 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>250.081440871474</v>
+        <v>233.164772069905</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -818,7 +818,7 @@
         <v>45261</v>
       </c>
       <c r="H20" t="n">
-        <v>-36.720238804929</v>
+        <v>-29.7728187193801</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -830,7 +830,7 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>251.638682272465</v>
+        <v>232.829503282956</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -840,7 +840,7 @@
         <v>45292</v>
       </c>
       <c r="H21" t="n">
-        <v>-42.6063577939041</v>
+        <v>-39.9476833078975</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -852,7 +852,7 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>252.378999171151</v>
+        <v>232.619623357924</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -862,7 +862,7 @@
         <v>45323</v>
       </c>
       <c r="H22" t="n">
-        <v>-48.5906339343078</v>
+        <v>-51.5711735293135</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -874,7 +874,7 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>252.14248208584</v>
+        <v>232.700196196672</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -884,7 +884,7 @@
         <v>45352</v>
       </c>
       <c r="H23" t="n">
-        <v>-55.3677571443793</v>
+        <v>-64.9873272955562</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -896,7 +896,7 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>251.027386963041</v>
+        <v>232.778638528224</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -906,7 +906,7 @@
         <v>45383</v>
       </c>
       <c r="H24" t="n">
-        <v>-62.0714718231819</v>
+        <v>-80.4845348543423</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -918,7 +918,7 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>249.36006744221</v>
+        <v>232.852197317838</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -928,7 +928,7 @@
         <v>45413</v>
       </c>
       <c r="H25" t="n">
-        <v>-69.0798305873377</v>
+        <v>-98.4129814944457</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -940,7 +940,7 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>247.570720460023</v>
+        <v>232.800601242037</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -950,7 +950,7 @@
         <v>45444</v>
       </c>
       <c r="H26" t="n">
-        <v>-75.8439463939544</v>
+        <v>-119.140558400797</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -962,7 +962,7 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>246.060212597205</v>
+        <v>232.796920939203</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -972,7 +972,7 @@
         <v>45474</v>
       </c>
       <c r="H27" t="n">
-        <v>-82.8869386314885</v>
+        <v>-142.988033016712</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -984,7 +984,7 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>245.096876875608</v>
+        <v>232.870620706248</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -994,7 +994,7 @@
         <v>45505</v>
       </c>
       <c r="H28" t="n">
-        <v>-89.893088153597</v>
+        <v>-170.055032509905</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -1006,7 +1006,7 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>244.794311651536</v>
+        <v>233.064035269091</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1016,7 +1016,7 @@
         <v>45536</v>
       </c>
       <c r="H29" t="n">
-        <v>-97.2201560194163</v>
+        <v>-200.043487289352</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1028,7 +1028,7 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>245.135952939218</v>
+        <v>233.231907416178</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1038,7 +1038,7 @@
         <v>45566</v>
       </c>
       <c r="H30" t="n">
-        <v>-104.461446227721</v>
+        <v>-232.010415942424</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1050,7 +1050,7 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>246.006488167212</v>
+        <v>233.302848017195</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1060,7 +1060,7 @@
         <v>45597</v>
       </c>
       <c r="H31" t="n">
-        <v>-111.769409424161</v>
+        <v>-264.210647081194</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1072,7 +1072,7 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>247.2203299644</v>
+        <v>233.198899262276</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1082,7 +1082,7 @@
         <v>45627</v>
       </c>
       <c r="H32" t="n">
-        <v>-118.827602788484</v>
+        <v>-294.239650467764</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -1094,7 +1094,7 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>248.536738262686</v>
+        <v>233.03003740535</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1104,7 +1104,7 @@
         <v>45658</v>
       </c>
       <c r="H33" t="n">
-        <v>-125.830917022752</v>
+        <v>-319.474636639485</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -1116,7 +1116,7 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>249.690427714727</v>
+        <v>232.865771856016</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1126,7 +1126,7 @@
         <v>45689</v>
       </c>
       <c r="H34" t="n">
-        <v>-132.609026469032</v>
+        <v>-337.555536510748</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -1138,7 +1138,7 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>250.444883440628</v>
+        <v>232.812544017516</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1148,7 +1148,7 @@
         <v>45717</v>
       </c>
       <c r="H35" t="n">
-        <v>-139.313896867565</v>
+        <v>-346.650674987331</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -1160,7 +1160,7 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>250.651100833112</v>
+        <v>232.830390943027</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1170,7 +1170,7 @@
         <v>45748</v>
       </c>
       <c r="H36" t="n">
-        <v>-145.750227652398</v>
+        <v>-345.490391889349</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -1182,7 +1182,7 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>250.293536691141</v>
+        <v>232.883140527319</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1192,7 +1192,7 @@
         <v>45778</v>
       </c>
       <c r="H37" t="n">
-        <v>-151.96922630704</v>
+        <v>-333.39016464544</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
